--- a/portfolio-optimization/data/raw/alternatives/vici_reits_aim_etf.xlsx
+++ b/portfolio-optimization/data/raw/alternatives/vici_reits_aim_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00036489-B995-4F6B-B744-EA3DDC67FC75}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA373F37-BE71-4C7A-8C71-F987FFE51AA5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>It is an experiential real estate investment trust that owns one of the largest portflios of market-leading gaming, hospitality and entertainment destinations, including the world renowned Caesars Palace.. Vici properties' strategy is to create the nation's highest quality and most productive experiential real estate portfolio.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -442,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1272"/>
+  <dimension ref="A1:H1272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
@@ -501,11 +498,8 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -519,7 +513,7 @@
         <v>5354092</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -533,7 +527,7 @@
         <v>5490532</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -547,7 +541,7 @@
         <v>5706344</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -561,7 +555,7 @@
         <v>5718588</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -575,7 +569,7 @@
         <v>5284448</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -589,7 +583,7 @@
         <v>5283780</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -603,7 +597,7 @@
         <v>5334896</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>45800</v>
       </c>
@@ -617,7 +611,7 @@
         <v>5331189</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>45799</v>
       </c>
@@ -631,7 +625,7 @@
         <v>5408573</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>45798</v>
       </c>
@@ -645,7 +639,7 @@
         <v>5615534</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>45797</v>
       </c>
@@ -659,7 +653,7 @@
         <v>5990750</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>45796</v>
       </c>
@@ -673,7 +667,7 @@
         <v>6136309</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>45793</v>
       </c>
@@ -687,7 +681,7 @@
         <v>6203932</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>45792</v>
       </c>
